--- a/Ver21_Метро/flats_with_metro_ratings.xlsx
+++ b/Ver21_Метро/flats_with_metro_ratings.xlsx
@@ -1855,20 +1855,16 @@
   <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2314,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>532033.42618384399</v>
@@ -2384,7 +2380,7 @@
         <v>48</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>605263.15789473685</v>
@@ -3399,7 +3395,7 @@
         <v>55</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I44">
         <v>365187.71331058018</v>
@@ -5639,7 +5635,7 @@
         <v>103</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I108">
         <v>303921.56862745102</v>
@@ -6269,7 +6265,7 @@
         <v>103</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>350649.35064935067</v>
@@ -6339,7 +6335,7 @@
         <v>103</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I128">
         <v>304523.80952380953</v>
@@ -7809,7 +7805,7 @@
         <v>267</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I170">
         <v>254901.96078431371</v>
@@ -8649,7 +8645,7 @@
         <v>48</v>
       </c>
       <c r="H194">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I194">
         <v>251533.74233128829</v>
@@ -8894,7 +8890,7 @@
         <v>103</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I201">
         <v>307832.42258652102</v>
@@ -10119,7 +10115,7 @@
         <v>43</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I236">
         <v>327556.32582322363</v>
@@ -10434,7 +10430,7 @@
         <v>43</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I245">
         <v>474390.24390243902</v>
@@ -13934,7 +13930,7 @@
         <v>293</v>
       </c>
       <c r="H345">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I345">
         <v>587951.80722891563</v>
@@ -14368,6 +14364,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>